--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE16AC39-2C3B-471E-81C5-9DC8D4376893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB980F0-B72D-4A9C-B83E-BC823D91269C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB980F0-B72D-4A9C-B83E-BC823D91269C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4116783-378A-4750-85F3-AAFF970300E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
+    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
-  <si>
-    <t>Mã nhóm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>TT</t>
   </si>
@@ -54,9 +51,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>Tên nhóm</t>
-  </si>
-  <si>
     <t>Đồng/m2/tháng</t>
   </si>
   <si>
@@ -181,6 +175,12 @@
   </si>
   <si>
     <t>Chợ hạng 3</t>
+  </si>
+  <si>
+    <t>Mã nhóm (Lấy theo danh mục trong phần mềm)</t>
+  </si>
+  <si>
+    <t>NHOM1</t>
   </si>
 </sst>
 </file>
@@ -225,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -248,11 +248,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +290,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,658 +629,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAD093F-75A6-44DB-84E5-06FB9066F6A7}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="20.28515625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>99000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>89000</v>
+      </c>
+      <c r="F4" s="6">
+        <v>80000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>69000</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6">
-        <v>99000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>89000</v>
-      </c>
-      <c r="H4" s="6">
-        <v>80000</v>
-      </c>
-      <c r="I4" s="6">
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>82000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>74000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>65000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>57000</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>82000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>74000</v>
-      </c>
-      <c r="H5" s="6">
-        <v>65000</v>
-      </c>
-      <c r="I5" s="6">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>67000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G6" s="10">
+        <v>52000</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <v>75000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>67000</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6">
         <v>60000</v>
       </c>
-      <c r="I6" s="6">
+      <c r="E7" s="6">
+        <v>54000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>48000</v>
+      </c>
+      <c r="G7" s="10">
+        <v>42000</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6">
         <v>52000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G7" s="6">
-        <v>54000</v>
-      </c>
-      <c r="H7" s="6">
-        <v>48000</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="E8" s="6">
+        <v>47000</v>
+      </c>
+      <c r="F8" s="6">
         <v>42000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="G8" s="10">
+        <v>36000</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6">
-        <v>52000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>47000</v>
-      </c>
-      <c r="H8" s="6">
-        <v>42000</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45000</v>
+      </c>
+      <c r="E9" s="6">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="6">
         <v>36000</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="G9" s="10">
+        <v>31000</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G9" s="6">
-        <v>40000</v>
-      </c>
-      <c r="H9" s="6">
-        <v>36000</v>
-      </c>
-      <c r="I9" s="6">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45000</v>
+      </c>
+      <c r="E11" s="6">
+        <v>40000</v>
+      </c>
+      <c r="F11" s="6">
+        <v>36000</v>
+      </c>
+      <c r="G11" s="10">
+        <v>31000</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>33000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="10">
+        <v>26000</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>40000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>36000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6">
+        <v>30000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>27000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>24000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>21000</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <v>37000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>33000</v>
-      </c>
-      <c r="H12" s="6">
-        <v>30000</v>
-      </c>
-      <c r="I12" s="6">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6">
-        <v>30000</v>
-      </c>
-      <c r="G13" s="6">
-        <v>27000</v>
-      </c>
-      <c r="H13" s="6">
-        <v>24000</v>
-      </c>
-      <c r="I13" s="6">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>68000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>52000</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>40000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>36000</v>
+      </c>
+      <c r="G16" s="10">
+        <v>31000</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="6">
-        <v>75000</v>
-      </c>
-      <c r="G15" s="6">
-        <v>68000</v>
-      </c>
-      <c r="H15" s="6">
-        <v>60000</v>
-      </c>
-      <c r="I15" s="6">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>40000</v>
-      </c>
-      <c r="H16" s="6">
-        <v>36000</v>
-      </c>
-      <c r="I16" s="6">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="8" t="s">
+      <c r="G17" s="10"/>
+      <c r="H17" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="10">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>4500</v>
-      </c>
-      <c r="H18" s="6">
-        <v>4000</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>39</v>
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2700</v>
       </c>
       <c r="F19" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>2700</v>
-      </c>
-      <c r="H19" s="6">
         <v>2400</v>
       </c>
-      <c r="I19" s="6">
+      <c r="G19" s="10">
         <v>2100</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="H19" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="6">
+        <v>75000</v>
+      </c>
+      <c r="E22" s="6">
+        <v>68000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>52000</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>23000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>21000</v>
+      </c>
+      <c r="F23" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G23" s="10">
+        <v>16000</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="6">
-        <v>75000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>68000</v>
-      </c>
-      <c r="H22" s="6">
-        <v>60000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6">
-        <v>23000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>21000</v>
-      </c>
-      <c r="H23" s="6">
-        <v>18000</v>
-      </c>
-      <c r="I23" s="6">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="6">
+        <v>13000</v>
       </c>
       <c r="F24" s="6">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="6">
-        <v>13000</v>
-      </c>
-      <c r="H24" s="6">
         <v>12000</v>
       </c>
-      <c r="I24" s="6">
+      <c r="G24" s="10">
         <v>11000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="H24" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3200</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2800</v>
+      </c>
+      <c r="G26" s="10">
+        <v>2500</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3600</v>
-      </c>
-      <c r="G26" s="6">
-        <v>3200</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2800</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>39</v>
+      <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2400</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2100</v>
       </c>
       <c r="F27" s="6">
-        <v>2400</v>
-      </c>
-      <c r="G27" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H27" s="6">
         <v>1900</v>
       </c>
-      <c r="I27" s="6">
+      <c r="G27" s="10">
         <v>1700</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="H27" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>47</v>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3000</v>
       </c>
       <c r="F29" s="6">
         <v>3000</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="10">
         <v>3000</v>
       </c>
-      <c r="H29" s="6">
-        <v>3000</v>
-      </c>
-      <c r="I29" s="6">
-        <v>3000</v>
+      <c r="H29" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/SanPhamDvCongIch.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4116783-378A-4750-85F3-AAFF970300E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00740A62-E1EE-41F8-8D00-C9B53DD8C580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
   <si>
     <t>TT</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>NHOM1</t>
+  </si>
+  <si>
+    <t>GIÁ SẢN PHẨM DỊCH VỤ CÔNG ÍCH</t>
   </si>
 </sst>
 </file>
@@ -191,14 +194,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -225,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,11 +264,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,13 +306,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,686 +644,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAD093F-75A6-44DB-84E5-06FB9066F6A7}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="32" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="14.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.25" style="12" customWidth="1"/>
+    <col min="8" max="8" width="32" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6">
-        <v>99000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>89000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>80000</v>
-      </c>
-      <c r="G4" s="10">
-        <v>69000</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6">
-        <v>82000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>74000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>65000</v>
-      </c>
-      <c r="G5" s="10">
-        <v>57000</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="D5" s="10">
+        <v>99000</v>
+      </c>
+      <c r="E5" s="10">
+        <v>89000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>80000</v>
+      </c>
+      <c r="G5" s="11">
+        <v>69000</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>67000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G6" s="10">
-        <v>52000</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="D6" s="10">
+        <v>82000</v>
+      </c>
+      <c r="E6" s="10">
+        <v>74000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>65000</v>
+      </c>
+      <c r="G6" s="11">
+        <v>57000</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E7" s="10">
+        <v>67000</v>
+      </c>
+      <c r="F7" s="10">
         <v>60000</v>
       </c>
-      <c r="E7" s="6">
-        <v>54000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>48000</v>
-      </c>
-      <c r="G7" s="10">
-        <v>42000</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="G7" s="11">
+        <v>52000</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
-        <v>52000</v>
-      </c>
-      <c r="E8" s="6">
-        <v>47000</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="10">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="10">
+        <v>54000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>48000</v>
+      </c>
+      <c r="G8" s="11">
         <v>42000</v>
       </c>
-      <c r="G8" s="10">
-        <v>36000</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="H8" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
+        <v>52000</v>
+      </c>
+      <c r="E9" s="10">
+        <v>47000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>42000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>36000</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
         <v>45000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="10">
         <v>40000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F10" s="10">
         <v>36000</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="11">
         <v>31000</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="H10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>40000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G11" s="10">
-        <v>31000</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6">
-        <v>37000</v>
-      </c>
-      <c r="E12" s="6">
-        <v>33000</v>
-      </c>
-      <c r="F12" s="6">
-        <v>30000</v>
-      </c>
-      <c r="G12" s="10">
-        <v>26000</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="10">
+        <v>45000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>40000</v>
+      </c>
+      <c r="F12" s="10">
+        <v>36000</v>
+      </c>
+      <c r="G12" s="11">
+        <v>31000</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
+        <v>37000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>33000</v>
+      </c>
+      <c r="F13" s="10">
         <v>30000</v>
       </c>
-      <c r="E13" s="6">
+      <c r="G13" s="11">
+        <v>26000</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <v>30000</v>
+      </c>
+      <c r="E14" s="10">
         <v>27000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="10">
         <v>24000</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="11">
         <v>21000</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="H14" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E15" s="6">
-        <v>68000</v>
-      </c>
-      <c r="F15" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G15" s="10">
-        <v>52000</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>68000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>60000</v>
+      </c>
+      <c r="G16" s="11">
+        <v>52000</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
         <v>45000</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E17" s="10">
         <v>40000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="10">
         <v>36000</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="11">
         <v>31000</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>4500</v>
-      </c>
-      <c r="F18" s="6">
-        <v>4000</v>
-      </c>
-      <c r="G18" s="10">
-        <v>2000</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>4500</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="11">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="10">
         <v>3000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="10">
         <v>2700</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="10">
         <v>2400</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="11">
         <v>2100</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="H20" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6">
-        <v>75000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>68000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G22" s="10">
-        <v>52000</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6">
-        <v>23000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>21000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>18000</v>
-      </c>
-      <c r="G23" s="10">
-        <v>16000</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+      <c r="D23" s="10">
+        <v>75000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>68000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>60000</v>
+      </c>
+      <c r="G23" s="11">
+        <v>52000</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="10">
+        <v>23000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>21000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>18000</v>
+      </c>
+      <c r="G24" s="11">
+        <v>16000</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
         <v>15000</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="10">
         <v>13000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="10">
         <v>12000</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="11">
         <v>11000</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="H25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6">
-        <v>3600</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3200</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2800</v>
-      </c>
-      <c r="G26" s="10">
-        <v>2500</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="10">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3200</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2800</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2500</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="10">
         <v>2400</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="10">
         <v>2100</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="10">
         <v>1900</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G28" s="11">
         <v>1700</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="H28" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D30" s="10">
         <v>3000</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E30" s="10">
         <v>3000</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F30" s="10">
         <v>3000</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G30" s="11">
         <v>3000</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H30" s="7" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:G1048576" xr:uid="{6E21F9D5-FEAC-48A3-9980-3CA7EBA274B6}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
